--- a/main/ig/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T11:56:22+00:00</t>
+    <t>2024-09-12T12:30:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-nationality.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T12:30:18+00:00</t>
+    <t>2024-09-12T13:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
